--- a/venv/komentarze.xlsx
+++ b/venv/komentarze.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\PYTHON_PROJECTS\komentarze\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniel_docs\ps\PAI-ppp\komenatrze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF72464-0695-490D-A834-9B85C87B02CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE89B9DC-3D37-4968-BC9C-A0185996E990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{642DCC45-897E-4780-A834-7E6875ACAFAB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{642DCC45-897E-4780-A834-7E6875ACAFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="opis" sheetId="4" r:id="rId1"/>
     <sheet name="L1" sheetId="1" r:id="rId2"/>
     <sheet name="L2" sheetId="2" r:id="rId3"/>
     <sheet name="L3" sheetId="3" r:id="rId4"/>
-    <sheet name="Lsum" sheetId="5" r:id="rId5"/>
+    <sheet name="L4" sheetId="6" r:id="rId5"/>
+    <sheet name="L5" sheetId="7" r:id="rId6"/>
+    <sheet name="L6" sheetId="8" r:id="rId7"/>
+    <sheet name="Lsum" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="575">
   <si>
     <t>label</t>
   </si>
@@ -258,9 +261,6 @@
     <t>gorąco polecam sklep i sprzedawców, bardzo miła obsługa</t>
   </si>
   <si>
-    <t>najlpesza obsługa na świecie</t>
-  </si>
-  <si>
     <t>najlepszy sklep na świecie</t>
   </si>
   <si>
@@ -736,6 +736,1032 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>szybko, tanio i solidnie</t>
+  </si>
+  <si>
+    <t>przesyłka dotarla szybko, toward ładnie zapakowany</t>
+  </si>
+  <si>
+    <t>przesyłaka expresowa</t>
+  </si>
+  <si>
+    <t>przesyłaka szybciej dotarła niż oczekiwałem</t>
+  </si>
+  <si>
+    <t>szyka dostawa bez opóźnień</t>
+  </si>
+  <si>
+    <t>przesyłka błyskawiczna, zero opóźnień</t>
+  </si>
+  <si>
+    <t>sprzet dotarł bez opóźnień</t>
+  </si>
+  <si>
+    <t>sprzęt dotarł tak szybko jak to możliwe</t>
+  </si>
+  <si>
+    <t>sprzęt dobrze zabezpieczony</t>
+  </si>
+  <si>
+    <t>przesyłka bez probelmów</t>
+  </si>
+  <si>
+    <t>czas dostawy rewelacyjny</t>
+  </si>
+  <si>
+    <t>dostawa rewelacyjna</t>
+  </si>
+  <si>
+    <t>bardzo pomocna obsługa</t>
+  </si>
+  <si>
+    <t>najlepsza obsługa na świecie</t>
+  </si>
+  <si>
+    <t>dziękuję za dobre wsparcie i wszelką pomoc</t>
+  </si>
+  <si>
+    <t>świetny kontakt i wsparcie</t>
+  </si>
+  <si>
+    <t>Bardzo dobry kontakt ze sklepem i duża empatia ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>Sprzedawca bardzo pomocny i sumienny</t>
+  </si>
+  <si>
+    <t>Rewelacyjny sprzedawca gorąco polecam</t>
+  </si>
+  <si>
+    <t>bardzo dobra współpraca ze sprzedawcą</t>
+  </si>
+  <si>
+    <t>bardzo dobra współpraca ze sklepem</t>
+  </si>
+  <si>
+    <t>super współpraca z obługą</t>
+  </si>
+  <si>
+    <t>dziękuję za cierpliwość wszelką pomoc i wyjaśnienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miła obsługa sklepu dobra merytoryczna wiedza i duzo pomocy </t>
+  </si>
+  <si>
+    <t>uczciwy sumienny sprzedawca polecam</t>
+  </si>
+  <si>
+    <t>bardzo dobre wsparcie przed przedażowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprzęt o wysokiej jakości </t>
+  </si>
+  <si>
+    <t>towar zgodny z opisem i oczekiwaniami</t>
+  </si>
+  <si>
+    <t>polecam produkty wysokiej jakości</t>
+  </si>
+  <si>
+    <t>produkt bardzo dobry</t>
+  </si>
+  <si>
+    <t>bardzo wysoka jakość, dobre wykonanie</t>
+  </si>
+  <si>
+    <t>wszystko z produktami ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">produkt jest taki jak ma być  dobry  </t>
+  </si>
+  <si>
+    <t>polecam sklep  bardzo dobra obsługa</t>
+  </si>
+  <si>
+    <t>polecam sprzedawce bardzo miła obsługa</t>
+  </si>
+  <si>
+    <t>polecam sprzedawce projestonalna obsłga klienta</t>
+  </si>
+  <si>
+    <t>jako klient polecam zakupy w sklepie, bardzo dobra obsluga</t>
+  </si>
+  <si>
+    <t>obsluga klienta na medal</t>
+  </si>
+  <si>
+    <t>obsługa klienta wzorowa</t>
+  </si>
+  <si>
+    <t>wzorowa obługa klienta</t>
+  </si>
+  <si>
+    <t>klient najważniejszy</t>
+  </si>
+  <si>
+    <t>sprzedawca bardzo dobrze traktuje klientów</t>
+  </si>
+  <si>
+    <t>klient na pierwszym miejscu</t>
+  </si>
+  <si>
+    <t>dużo wsparcia i pomocy ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>dobre wsparcie ze strony obsługi</t>
+  </si>
+  <si>
+    <t>dobre wsparcie ze strony sklepu</t>
+  </si>
+  <si>
+    <t>dobre wsparcie ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>duża pomoc ze strony sklepu</t>
+  </si>
+  <si>
+    <t>duża pomoc ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>sprzedawca solidny, znający się na tematcie i bardzo pomocny</t>
+  </si>
+  <si>
+    <t>sklep ze wzorową obsługa i wsparciem klienta</t>
+  </si>
+  <si>
+    <t>duża wiedza techniczn obsługi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bardzo dobry kontakt i wsparcie </t>
+  </si>
+  <si>
+    <t>solidna obsługa klienta i wsparcie</t>
+  </si>
+  <si>
+    <t>sklep ma bardzo dobre podejście do klienta</t>
+  </si>
+  <si>
+    <t>komentarz negatywny obluga</t>
+  </si>
+  <si>
+    <t>Bardzo niemiła obsluga</t>
+  </si>
+  <si>
+    <t>NIeuczciwy sprzedawca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zlu kontakt, </t>
+  </si>
+  <si>
+    <t>NIerzetelna obsługa</t>
+  </si>
+  <si>
+    <t>obsluga bardzo slaba</t>
+  </si>
+  <si>
+    <t>niedobry I nieżyczliwy kontakt</t>
+  </si>
+  <si>
+    <t>niemiła obsługa</t>
+  </si>
+  <si>
+    <t>brak rzeczowej pomocy</t>
+  </si>
+  <si>
+    <t>sprzedawca niegodny polecenia</t>
+  </si>
+  <si>
+    <t>slabe wsparcie, brak pomocy ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>beznadziejny kontakt</t>
+  </si>
+  <si>
+    <t>zero kontaktu ze sprzedawcą</t>
+  </si>
+  <si>
+    <t>żadnej pomoc</t>
+  </si>
+  <si>
+    <t>brak kontaktu i odpowiedzi</t>
+  </si>
+  <si>
+    <t>słabe wsparcie i brak pomocy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nieuczciwie, nierzetelnie, niemiło i nieprofesjonalnie</t>
+  </si>
+  <si>
+    <t>nieprofesjonalny kontakt i niemiła obsługa</t>
+  </si>
+  <si>
+    <t>brak jakiejkolwiek odpowiedz i bardzo niemiła obsługa</t>
+  </si>
+  <si>
+    <t>bardzozła pomoc</t>
+  </si>
+  <si>
+    <t>sprzedawca bardzo niemiły</t>
+  </si>
+  <si>
+    <t>sprzedawca nieuczciwy i niesolidny</t>
+  </si>
+  <si>
+    <t>sprzedawca długi i nieprofejonalnie odpowieda na pytania</t>
+  </si>
+  <si>
+    <t>słaba i niesolidna pomoc</t>
+  </si>
+  <si>
+    <t>brak empatii i brak zrozumienia ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>sklep ma niemiłą obsługę</t>
+  </si>
+  <si>
+    <t>sklep z niemiłą obsługą i nieprofejsonalnych personelem</t>
+  </si>
+  <si>
+    <t>bardzo zły kontakt ze sklepem</t>
+  </si>
+  <si>
+    <t>złu kontakt</t>
+  </si>
+  <si>
+    <t>brak profesjonalnej obsługi</t>
+  </si>
+  <si>
+    <t>niemiła i nieprofesjonalna obsługa</t>
+  </si>
+  <si>
+    <t>nierzetelna obsługa</t>
+  </si>
+  <si>
+    <t>długo, nieprofesjonalnie, niepolecm sklepu</t>
+  </si>
+  <si>
+    <t>sklep z bardzo słabym wsparciem dla klienta</t>
+  </si>
+  <si>
+    <t>słabe wsparcie</t>
+  </si>
+  <si>
+    <t>nieprofesjonalny personel</t>
+  </si>
+  <si>
+    <t>niemiły pesonel</t>
+  </si>
+  <si>
+    <t>nieuczciwy i nierzetelny personel</t>
+  </si>
+  <si>
+    <t>bardzo niemiła obsługa i brak znajomości własnego towaru</t>
+  </si>
+  <si>
+    <t>bardzo słaba obsługa</t>
+  </si>
+  <si>
+    <t>wolno, nierzetelnie, nieprofesjonalnie</t>
+  </si>
+  <si>
+    <t>słaby kontakt, badzo wolna odpowiedź</t>
+  </si>
+  <si>
+    <t>bardzo kiepski personel</t>
+  </si>
+  <si>
+    <t>kiepski kontakt i wsparcie</t>
+  </si>
+  <si>
+    <t>najgorszy sklep i obsłga klienta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niepolecam </t>
+  </si>
+  <si>
+    <t>niepolecam sprzedawce</t>
+  </si>
+  <si>
+    <t>sprzedawca nie ok</t>
+  </si>
+  <si>
+    <t>wszystko nie tak jak należy</t>
+  </si>
+  <si>
+    <t>sklep niewarty polecena</t>
+  </si>
+  <si>
+    <t>beznadziejny sklep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takich sprzedawców niepolecam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niepolecam wszystkim </t>
+  </si>
+  <si>
+    <t>nie jest to mój ulubiony sklep</t>
+  </si>
+  <si>
+    <t>sprzedawca z którym nie chce mieć nic wspólnego</t>
+  </si>
+  <si>
+    <t>bardzo wolna odpowiedź, niemerytoryczna, nierzeczowa, nieuprzejma</t>
+  </si>
+  <si>
+    <t>obsuga nieprofesjonalna i nieuprzejma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak kontaktu </t>
+  </si>
+  <si>
+    <t>obaługa bardzo nierzeczowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsługa niesymatyczna </t>
+  </si>
+  <si>
+    <t>niepolecam sklepu i sprzedawcy, bardzo niemiła obsługa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nienajlepsza obsługa </t>
+  </si>
+  <si>
+    <t>najgorszy sklep na świecie</t>
+  </si>
+  <si>
+    <t>daremna obsługa</t>
+  </si>
+  <si>
+    <t>obsługa to dno zero pomoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsługa klienta żałosna, brak kontaktu, kiepska wiedza , brak pomocy, wszystko źle </t>
+  </si>
+  <si>
+    <t>100% na nie</t>
+  </si>
+  <si>
+    <t>wszystko na nie</t>
+  </si>
+  <si>
+    <t>niemiłe rozczarowanie, niepolecam sklepu z powodu bardzo niesympatycznej i niemiłej obsługi</t>
+  </si>
+  <si>
+    <t>bardzo niemiła obsługa i brak znajomości produktów</t>
+  </si>
+  <si>
+    <t>tak źle jeszcze niedzie mnie nie potraktowano, niepolecam</t>
+  </si>
+  <si>
+    <t>brak jakiekolwiek kontaktu ze sprzedawcą</t>
+  </si>
+  <si>
+    <t>brak możliwości kontaktu ze sklepem</t>
+  </si>
+  <si>
+    <t>Sprzedawca niepomocny i niesumienny</t>
+  </si>
+  <si>
+    <t>Beznadziejny sprzedawca gorąco odradzam</t>
+  </si>
+  <si>
+    <t>bardzo słaba współpraca ze sprzedawcą</t>
+  </si>
+  <si>
+    <t>bardzo słaba współpraca ze sklepem</t>
+  </si>
+  <si>
+    <t>kiepska współpraca z obługą</t>
+  </si>
+  <si>
+    <t>brak cierpliwości brak pomoc i brak wyjaśnień</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niemiła obsługa sklepu brak merytorycznej wiedzy i żadnej pomocy </t>
+  </si>
+  <si>
+    <t>nieuczciwy niesumienny sprzedawca nie polecam</t>
+  </si>
+  <si>
+    <t>bardzo słabe wsparcie przed sprzedażowe</t>
+  </si>
+  <si>
+    <t>nie polecam sklepu  bardzo nieprofesjonalna obsługa</t>
+  </si>
+  <si>
+    <t>nie polecam sprzedawcy  bardzo niemiła osoba</t>
+  </si>
+  <si>
+    <t>nie polecam sprzedawcy nieprojestonalna obsłga klienta</t>
+  </si>
+  <si>
+    <t>jako klient nie polecam zakupów w sklepie, bardzo niedobra obsluga</t>
+  </si>
+  <si>
+    <t>obsluga klienta to dno</t>
+  </si>
+  <si>
+    <t>obsługa klienta  kiepska</t>
+  </si>
+  <si>
+    <t>beznadziejna obługa klienta</t>
+  </si>
+  <si>
+    <t>klient najmniej ważny</t>
+  </si>
+  <si>
+    <t>sprzedawca bardzo niedobrze traktuje klientów</t>
+  </si>
+  <si>
+    <t>klient na ostatnim miejscu</t>
+  </si>
+  <si>
+    <t>brak wsparcia i pomocy ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>brak pomocy ze strony sklepu</t>
+  </si>
+  <si>
+    <t>brak pomocy ze strony obsługi</t>
+  </si>
+  <si>
+    <t>brak pomocy ze strony sprzedawcy</t>
+  </si>
+  <si>
+    <t>sprzedawca niesolidny, nieznający się na tematcie i bardzo niepomocny</t>
+  </si>
+  <si>
+    <t>sklep z naganną obsługa i brakiem wsparcia klienta</t>
+  </si>
+  <si>
+    <t>mała  wiedza techniczn obsługi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bardzo słaby kontakt i wsparcie </t>
+  </si>
+  <si>
+    <t>niesolidna obsługa klienta i słabe wsparcie</t>
+  </si>
+  <si>
+    <t>sklep ma bardzo kiepskie podejście do klienta</t>
+  </si>
+  <si>
+    <t>towar niezgodny z opisem</t>
+  </si>
+  <si>
+    <t>bardzo kiepski towar</t>
+  </si>
+  <si>
+    <t>kiepski towar za kiepską cenę</t>
+  </si>
+  <si>
+    <t>produkt niezgodny z opisem</t>
+  </si>
+  <si>
+    <t>jakość towaru bardzo niska</t>
+  </si>
+  <si>
+    <t>jakoś towaru bardzo zła</t>
+  </si>
+  <si>
+    <t>jakość towaru słaba</t>
+  </si>
+  <si>
+    <t>jakość niska</t>
+  </si>
+  <si>
+    <t>jakość towaru bardzo zła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nie polecam produktu </t>
+  </si>
+  <si>
+    <t>słaba jakość za wysoką cenę</t>
+  </si>
+  <si>
+    <t>beznadziejne promocje</t>
+  </si>
+  <si>
+    <t>nie polecam towaru</t>
+  </si>
+  <si>
+    <t>nie polecam sprzetu</t>
+  </si>
+  <si>
+    <t>sprzęt niezgodny z opisem</t>
+  </si>
+  <si>
+    <t>sprzęt kiepski</t>
+  </si>
+  <si>
+    <t>sprzet nie ok</t>
+  </si>
+  <si>
+    <t>towar o niskiej jakości</t>
+  </si>
+  <si>
+    <t>chiński towar</t>
+  </si>
+  <si>
+    <t>chiński produkt</t>
+  </si>
+  <si>
+    <t>nie miło jestem zaskoczony jakością produktu</t>
+  </si>
+  <si>
+    <t>jestem rozczarowany jakością produktu</t>
+  </si>
+  <si>
+    <t>jestem rozczarowany jakością sprzętu</t>
+  </si>
+  <si>
+    <t>nieprofesjonalne produkty</t>
+  </si>
+  <si>
+    <t>nieprofesjonalny sprzęt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiepski sprzęt </t>
+  </si>
+  <si>
+    <t>towar z dolnej półki</t>
+  </si>
+  <si>
+    <t>0% zgodnie z opisem</t>
+  </si>
+  <si>
+    <t>sprzęt oceniam na 0% ok</t>
+  </si>
+  <si>
+    <t>towar to chińszczyzna</t>
+  </si>
+  <si>
+    <t>sprzet 0% jak należy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprzęt do niczego </t>
+  </si>
+  <si>
+    <t>towar trefny</t>
+  </si>
+  <si>
+    <t>produkt trefny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprzet nie działa </t>
+  </si>
+  <si>
+    <t>bardzo słaby sprzęt</t>
+  </si>
+  <si>
+    <t>towar niespełnia moich oczekiwań</t>
+  </si>
+  <si>
+    <t>sprzęt niespełnia moich oczekiwań</t>
+  </si>
+  <si>
+    <t>chiński sprzęt</t>
+  </si>
+  <si>
+    <t>niska jakość  towaru</t>
+  </si>
+  <si>
+    <t>niska jakość produktu</t>
+  </si>
+  <si>
+    <t>niska jakoś sprzętu</t>
+  </si>
+  <si>
+    <t>niezgodny z opisem</t>
+  </si>
+  <si>
+    <t>same problemy problemów</t>
+  </si>
+  <si>
+    <t>kiepska jakość</t>
+  </si>
+  <si>
+    <t>produkt bezdandziejny</t>
+  </si>
+  <si>
+    <t>towar nie spełnia oczekiwania</t>
+  </si>
+  <si>
+    <t>zakupiony sprzęt nie spełnia oczekiwania</t>
+  </si>
+  <si>
+    <t>sprzęt nie spełnia oczekiwania</t>
+  </si>
+  <si>
+    <t>jakoś nie powala</t>
+  </si>
+  <si>
+    <t>sprzęt nie jest dobry</t>
+  </si>
+  <si>
+    <t>sprzęt jest nie za dobry</t>
+  </si>
+  <si>
+    <t>produkt jest kiepski</t>
+  </si>
+  <si>
+    <t>jakość daleka od ideału</t>
+  </si>
+  <si>
+    <t>niesolidne wykonanie, wszystko działa kiepsko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprzęt o marnej jakości </t>
+  </si>
+  <si>
+    <t>towar nie zgodny z opisem i oczekiwaniami</t>
+  </si>
+  <si>
+    <t>nie polecam produkty kiepskiej jakości</t>
+  </si>
+  <si>
+    <t>produkt nie za dobry</t>
+  </si>
+  <si>
+    <t>bardzo słaba jakość, kiepskie wykonanie</t>
+  </si>
+  <si>
+    <t>wszystko z produktami nie tak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">produkt jest nie taki jak ma być, słąby   </t>
+  </si>
+  <si>
+    <t>ten produkt to zwyklła chińszczyzna</t>
+  </si>
+  <si>
+    <t>jakoś pozostawia wiele do życzenia</t>
+  </si>
+  <si>
+    <t>towar jest niezdodny z opisem aukcji</t>
+  </si>
+  <si>
+    <t>sprzet do kitu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beznadziejna jakość i wykonanie </t>
+  </si>
+  <si>
+    <t>sprzęt nie działa</t>
+  </si>
+  <si>
+    <t>jakoś mierna</t>
+  </si>
+  <si>
+    <t>produkt kiepskiej jakości i wykonania</t>
+  </si>
+  <si>
+    <t>towar działa jak chce a na pewno nie jak powinien</t>
+  </si>
+  <si>
+    <t>sprzet jest do niczego nie polecam</t>
+  </si>
+  <si>
+    <t>sprzet jest do kitu, nie działa</t>
+  </si>
+  <si>
+    <t>sprzęt wykonany jest kiepsko, jakość niska, funkcjonalnośc słąba</t>
+  </si>
+  <si>
+    <t>funckonalność kiepska</t>
+  </si>
+  <si>
+    <t>komentarz negatywny wysylka</t>
+  </si>
+  <si>
+    <t>długa wysyłka</t>
+  </si>
+  <si>
+    <t>bardzo długa wysyłka</t>
+  </si>
+  <si>
+    <t>nieprofesjonalna i wolna wysyłka</t>
+  </si>
+  <si>
+    <t>długa dostawa</t>
+  </si>
+  <si>
+    <t>dostawa bardzo wolna</t>
+  </si>
+  <si>
+    <t>dostawa niezgodnie z opisem</t>
+  </si>
+  <si>
+    <t>dostawa nie na czas</t>
+  </si>
+  <si>
+    <t>dostawa z opóźnieniem</t>
+  </si>
+  <si>
+    <t>dostawa z problemami</t>
+  </si>
+  <si>
+    <t>wysyłka nie na czas</t>
+  </si>
+  <si>
+    <t>wysyłka niezgodnie z opisem</t>
+  </si>
+  <si>
+    <t>wysyłka dramatycznie długa</t>
+  </si>
+  <si>
+    <t>towar źle zapakowany i dostarczony z opóźnieniem</t>
+  </si>
+  <si>
+    <t>przesyłka sporo opóźniona</t>
+  </si>
+  <si>
+    <t>przesyłka niezgodnie z planem</t>
+  </si>
+  <si>
+    <t>przesyłka długo poza deklarowanym czasem</t>
+  </si>
+  <si>
+    <t>przesyłka źle przygotowana</t>
+  </si>
+  <si>
+    <t>nieprofesjonalna wysyłka i opokowanie</t>
+  </si>
+  <si>
+    <t>towar brzytko zapakowany i przygotowany</t>
+  </si>
+  <si>
+    <t>nieprofesjonalne opakowanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">towar  niezabezpieczony </t>
+  </si>
+  <si>
+    <t>paczka dotarła z dużym opóźnieniem</t>
+  </si>
+  <si>
+    <t>paczka dostarczona po czasie</t>
+  </si>
+  <si>
+    <t>sporo opóźnień</t>
+  </si>
+  <si>
+    <t>duzy poślizg w wysyłace</t>
+  </si>
+  <si>
+    <t>traginczna paczka</t>
+  </si>
+  <si>
+    <t>paczka nie na czas</t>
+  </si>
+  <si>
+    <t>dostawa jak z ksieżyca</t>
+  </si>
+  <si>
+    <t>dostawa dużo za późno niż się spodziewałem</t>
+  </si>
+  <si>
+    <t>paczka brzytka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysyłka ślimacza </t>
+  </si>
+  <si>
+    <t>paczka niezbyt piękna</t>
+  </si>
+  <si>
+    <t>towar wysłany nie profesjonalnie, wolno , zapakowany niechlujnie</t>
+  </si>
+  <si>
+    <t>towar źle zabezpieczony przy wysyłce</t>
+  </si>
+  <si>
+    <t>transport wolny i nieprofesjonalny</t>
+  </si>
+  <si>
+    <t>długo, wolno i z problemami</t>
+  </si>
+  <si>
+    <t>pierwsza tak wolna dostawa</t>
+  </si>
+  <si>
+    <t>jak zwykle towar z opóźnieniem</t>
+  </si>
+  <si>
+    <t>sprzęt wysłany z poślizgiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprzęt zapakowany miernie </t>
+  </si>
+  <si>
+    <t>sprzęt zapakowany miernie i wysłany poźno</t>
+  </si>
+  <si>
+    <t>towar spakowany kipesko i wysłany późno</t>
+  </si>
+  <si>
+    <t>przesyłka az razi oczy</t>
+  </si>
+  <si>
+    <t>towar wysłyładny długo i z problemami</t>
+  </si>
+  <si>
+    <t>sprzet wysłany z opóźninie i z problemami</t>
+  </si>
+  <si>
+    <t>zakupy dostarczone z dużym opóźnieniem</t>
+  </si>
+  <si>
+    <t>zakupy opóźnione</t>
+  </si>
+  <si>
+    <t>zakupy dostarczone niezgodnie z opisem</t>
+  </si>
+  <si>
+    <t>zakupy nie dotały błyskawicznie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakupy nie dotarły </t>
+  </si>
+  <si>
+    <t>towar nie na czas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakupy brzytko zapakowane </t>
+  </si>
+  <si>
+    <t>dostawa długa nie tak jak należy</t>
+  </si>
+  <si>
+    <t>dostawa ze sporym opóźnieniem nie tak jak opisano</t>
+  </si>
+  <si>
+    <t>dostawa nie na czas, sprzęt źle zabezpieczony</t>
+  </si>
+  <si>
+    <t>transport niezgodnie z planem</t>
+  </si>
+  <si>
+    <t>transport bardzo długi</t>
+  </si>
+  <si>
+    <t>wysyłka dotarła bardzo opóźniona</t>
+  </si>
+  <si>
+    <t>zakupy dotarły opóźnione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakpy kiepsko zapakowane </t>
+  </si>
+  <si>
+    <t>dostawa nie ok</t>
+  </si>
+  <si>
+    <t>paczka nie solidna i nie na czas</t>
+  </si>
+  <si>
+    <t>przesyłka dotarła nie zgodnie z zapowiedzią opóźniona</t>
+  </si>
+  <si>
+    <t>przeysłka dostarczona z opóźnieniem</t>
+  </si>
+  <si>
+    <t>dostawa zajeła az tydzień</t>
+  </si>
+  <si>
+    <t>dostawa dłużej niż planowano</t>
+  </si>
+  <si>
+    <t>wolniejsza wysyłka niż podano</t>
+  </si>
+  <si>
+    <t>wysyłaka dłuższa niż założono</t>
+  </si>
+  <si>
+    <t>sprzet dotarł poźniej niż planowano</t>
+  </si>
+  <si>
+    <t>sprzęt wysłano chyba po tygodniu</t>
+  </si>
+  <si>
+    <t>dostawa dramatycznie długa</t>
+  </si>
+  <si>
+    <t>dostawa zajeła chyba rok</t>
+  </si>
+  <si>
+    <t>sptrzęt szedł chyba na piechotę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paczka płyneła chyba przez atlantyk </t>
+  </si>
+  <si>
+    <t>najdłuża dostawa jaką pamiętam</t>
+  </si>
+  <si>
+    <t>paczka nie dotarła po dwóch dniach</t>
+  </si>
+  <si>
+    <t>sptrzęt nie dotał po jednym dniu</t>
+  </si>
+  <si>
+    <t>dostawa nie w dwa dni</t>
+  </si>
+  <si>
+    <t>towar nie dotał po jedym dniu</t>
+  </si>
+  <si>
+    <t>towar nie dotarł nastepnego dnia</t>
+  </si>
+  <si>
+    <t>towar nie dotarł po dwóch dniach</t>
+  </si>
+  <si>
+    <t>paczka nie dotarła z prędkością światła</t>
+  </si>
+  <si>
+    <t>dostawa nie expresowa</t>
+  </si>
+  <si>
+    <t>dostawa długa niezgodnie z opisem</t>
+  </si>
+  <si>
+    <t>dostawa chyba na ślimaku</t>
+  </si>
+  <si>
+    <t>paczka chyba się zgubiła po drodze</t>
+  </si>
+  <si>
+    <t>wysyłka chyba poczatą polską</t>
+  </si>
+  <si>
+    <t>kiepskie  opakowanie</t>
+  </si>
+  <si>
+    <t>niezbyt solidna wolna wysyłka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">towar nie za dobrze spakowany </t>
+  </si>
+  <si>
+    <t>wolną i niesolidna dostawa</t>
+  </si>
+  <si>
+    <t>długo, drogo i niesolidnie</t>
+  </si>
+  <si>
+    <t>przesyłka dotarla opóźniona, towar źle zapakowany</t>
+  </si>
+  <si>
+    <t>przesyłaka zdebydownie nie expresowa</t>
+  </si>
+  <si>
+    <t>przesyłka raczej nie błyskawiczna, duże opóźninie</t>
+  </si>
+  <si>
+    <t>wolna i długa dostawa z opóźnieniem</t>
+  </si>
+  <si>
+    <t>sprzęt dotarł tak poźno jak to możliwe</t>
+  </si>
+  <si>
+    <t>sprzęt słabo zabezpieczony</t>
+  </si>
+  <si>
+    <t>transport nie ok</t>
+  </si>
+  <si>
+    <t>przesyłka z probelmami</t>
+  </si>
+  <si>
+    <t>czas dostawy nie rewelacyjny</t>
+  </si>
+  <si>
+    <t>dostawa nie rewelacyjna</t>
+  </si>
+  <si>
+    <t>opóźnienie w dostawie towaru spore</t>
+  </si>
+  <si>
+    <t>czas dostawy nie zachwyca</t>
+  </si>
+  <si>
+    <t>czas dostawy nieakceptowalny</t>
+  </si>
+  <si>
+    <t>czas dostawy zbyt długi</t>
+  </si>
+  <si>
+    <t>ile można czekac na dostawe</t>
+  </si>
+  <si>
+    <t>dostawa zajmuje nieskonczoność</t>
+  </si>
+  <si>
+    <t>sprzęt dotarł z opóźnieniem</t>
   </si>
   <si>
     <t>opinia</t>
@@ -1112,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1FDC-B2F2-42B5-AAB5-F72410E5A5DA}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +2250,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -1238,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44B83F4-5F2F-4818-B3F3-6056D6A996BE}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,7 +2282,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1264,7 +2290,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,7 +2751,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1741,7 +2767,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1749,7 +2775,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1757,7 +2783,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1765,7 +2791,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1773,7 +2799,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1781,7 +2807,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1789,7 +2815,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1797,7 +2823,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1808,6 +2834,294 @@
         <v>52</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>284</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>285</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>286</v>
+      </c>
+      <c r="B106">
         <v>1</v>
       </c>
     </row>
@@ -1819,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A011C78B-7D54-4E68-972D-C6864463D19F}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B61"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,12 +3147,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1846,7 +3160,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1854,7 +3168,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1862,7 +3176,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1870,7 +3184,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1878,7 +3192,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1886,7 +3200,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1894,7 +3208,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1902,7 +3216,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1910,7 +3224,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1918,7 +3232,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1926,7 +3240,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1934,7 +3248,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1942,7 +3256,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1950,7 +3264,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1958,7 +3272,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1966,7 +3280,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1974,7 +3288,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1982,7 +3296,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1990,7 +3304,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1998,7 +3312,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2006,7 +3320,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -2014,7 +3328,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2022,7 +3336,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2030,7 +3344,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2038,7 +3352,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2046,7 +3360,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2054,7 +3368,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2062,7 +3376,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2070,7 +3384,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2078,7 +3392,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2086,7 +3400,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2094,7 +3408,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2102,7 +3416,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2110,7 +3424,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2118,7 +3432,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2126,7 +3440,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2134,7 +3448,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2142,7 +3456,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2150,7 +3464,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2158,7 +3472,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2166,7 +3480,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2174,7 +3488,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2182,7 +3496,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2190,7 +3504,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2198,7 +3512,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2206,7 +3520,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2214,7 +3528,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -2222,7 +3536,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2230,7 +3544,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2238,7 +3552,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2246,7 +3560,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2254,7 +3568,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -2262,7 +3576,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -2270,7 +3584,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2278,7 +3592,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2286,7 +3600,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2294,7 +3608,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2302,9 +3616,65 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68">
         <v>2</v>
       </c>
     </row>
@@ -2316,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9BEE66-89A0-4D4F-812F-DFE2D692E66F}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,12 +3699,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2342,7 +3712,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2350,7 +3720,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2358,7 +3728,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2366,7 +3736,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2374,7 +3744,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2382,7 +3752,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2390,7 +3760,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2398,7 +3768,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2406,7 +3776,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2414,7 +3784,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2422,7 +3792,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2430,7 +3800,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2438,7 +3808,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2446,7 +3816,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2454,7 +3824,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2462,7 +3832,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2470,7 +3840,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2478,7 +3848,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2486,7 +3856,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2494,7 +3864,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2502,7 +3872,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2510,7 +3880,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2518,7 +3888,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2526,7 +3896,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -2534,7 +3904,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2542,7 +3912,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -2550,7 +3920,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -2558,7 +3928,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -2566,7 +3936,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2574,7 +3944,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2582,7 +3952,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2590,7 +3960,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2598,7 +3968,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2606,7 +3976,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2614,7 +3984,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2622,7 +3992,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2630,7 +4000,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2638,7 +4008,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2646,7 +4016,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -2654,7 +4024,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -2662,7 +4032,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -2670,7 +4040,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -2678,7 +4048,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2686,7 +4056,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2694,7 +4064,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2702,7 +4072,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -2710,7 +4080,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2718,7 +4088,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2726,7 +4096,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -2734,7 +4104,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -2742,7 +4112,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -2750,7 +4120,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -2758,7 +4128,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -2766,7 +4136,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -2774,7 +4144,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -2782,7 +4152,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -2790,7 +4160,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -2798,7 +4168,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -2806,7 +4176,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -2814,7 +4184,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -2822,7 +4192,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -2830,7 +4200,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -2838,7 +4208,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -2846,7 +4216,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2854,7 +4224,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -2862,7 +4232,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -2870,7 +4240,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -2878,7 +4248,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2886,7 +4256,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2894,7 +4264,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -2902,7 +4272,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -2910,7 +4280,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -2918,7 +4288,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2926,7 +4296,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -2934,7 +4304,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -2942,7 +4312,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -2950,7 +4320,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2958,7 +4328,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2966,7 +4336,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2974,7 +4344,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2982,7 +4352,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2990,7 +4360,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -2998,7 +4368,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -3006,7 +4376,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -3014,7 +4384,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -3022,7 +4392,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -3030,7 +4400,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -3038,7 +4408,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -3046,7 +4416,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -3054,7 +4424,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -3062,7 +4432,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -3070,7 +4440,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -3078,9 +4448,113 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109">
         <v>3</v>
       </c>
     </row>
@@ -3090,11 +4564,2461 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBD7D97-60C9-4B51-9408-6BB694390C69}">
+  <dimension ref="A1:B106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>322</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>333</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>341</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>342</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>345</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>346</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>349</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>350</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>356</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>358</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>360</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>370</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>371</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>372</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>373</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>374</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>377</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>378</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>381</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>383</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>385</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>386</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>387</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B42471-5FD9-4517-B7BA-654191EF1D65}">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>423</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>428</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>429</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>430</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>431</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>432</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>433</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>434</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>436</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>435</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>438</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>439</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>440</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>441</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>443</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>446</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>447</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>448</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>453</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>457</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>458</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>462</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>463</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA73DD6-492C-46A4-B086-92C7FE3AE616}">
+  <dimension ref="A1:B115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>488</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>489</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>491</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>498</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>500</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>503</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>504</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>505</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>512</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>513</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>515</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>516</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>518</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>520</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>523</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>531</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>532</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>533</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>534</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>535</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>536</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>537</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>539</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>540</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>541</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>543</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>544</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>545</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>546</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>547</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>548</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>549</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>550</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>551</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>552</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>553</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>554</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>555</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>556</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>557</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>558</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>559</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>560</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>573</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>561</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>562</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>563</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>564</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>565</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>566</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>567</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>568</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>569</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>570</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>571</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>572</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471AD292-6320-4E63-BCA5-A310B769273E}">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463:B575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3104,7 +7028,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>574</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3568,7 +7492,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3584,7 +7508,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3592,7 +7516,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3600,7 +7524,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3608,7 +7532,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3616,7 +7540,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3624,7 +7548,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3632,7 +7556,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3640,7 +7564,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3656,295 +7580,295 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -3952,7 +7876,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -3960,7 +7884,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -3968,7 +7892,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -3976,7 +7900,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -3984,7 +7908,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -3992,7 +7916,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -4000,7 +7924,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -4008,7 +7932,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -4016,7 +7940,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -4024,7 +7948,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -4032,7 +7956,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -4040,7 +7964,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -4048,7 +7972,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -4056,7 +7980,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -4064,7 +7988,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -4072,7 +7996,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -4080,7 +8004,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -4088,7 +8012,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -4096,7 +8020,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -4104,7 +8028,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -4112,7 +8036,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -4120,7 +8044,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -4128,351 +8052,351 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -4480,7 +8404,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -4488,7 +8412,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -4496,7 +8420,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -4504,7 +8428,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -4512,7 +8436,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -4520,7 +8444,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -4528,7 +8452,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -4536,7 +8460,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -4544,7 +8468,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -4552,7 +8476,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -4560,7 +8484,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -4568,7 +8492,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -4576,7 +8500,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -4584,7 +8508,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -4592,7 +8516,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -4600,7 +8524,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -4608,7 +8532,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -4616,7 +8540,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -4624,7 +8548,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -4632,7 +8556,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -4640,7 +8564,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -4648,7 +8572,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -4656,7 +8580,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -4664,7 +8588,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -4672,7 +8596,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -4680,7 +8604,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -4688,7 +8612,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -4696,7 +8620,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -4704,7 +8628,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -4712,7 +8636,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -4720,7 +8644,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -4728,7 +8652,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -4736,7 +8660,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -4744,7 +8668,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -4752,7 +8676,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -4760,7 +8684,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -4768,7 +8692,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -4776,7 +8700,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -4784,7 +8708,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -4792,7 +8716,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -4800,7 +8724,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -4808,7 +8732,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -4816,7 +8740,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -4824,7 +8748,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -4832,7 +8756,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -4840,7 +8764,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -4848,7 +8772,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -4856,7 +8780,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -4864,7 +8788,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -4872,10 +8796,2834 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="B222">
         <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>161</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>163</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>164</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>165</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>166</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>167</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>168</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>169</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>170</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>171</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>172</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>173</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>174</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>175</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>176</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>177</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>178</v>
+      </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>179</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>180</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>181</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>182</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>183</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>184</v>
+      </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>185</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>186</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>187</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>188</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>189</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>190</v>
+      </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>191</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>192</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>193</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>194</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>195</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>196</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>197</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>198</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>199</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>200</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>201</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>202</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>203</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>232</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>233</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>234</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>235</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>237</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>236</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>238</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>239</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>240</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>169</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>241</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>242</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>243</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>288</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>289</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>290</v>
+      </c>
+      <c r="B281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>291</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>292</v>
+      </c>
+      <c r="B283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>293</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>294</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>295</v>
+      </c>
+      <c r="B286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>296</v>
+      </c>
+      <c r="B287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>297</v>
+      </c>
+      <c r="B288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>298</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>299</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>300</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>301</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>302</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>303</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>304</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>305</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>306</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>307</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>308</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>309</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>310</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>311</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>312</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>313</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>314</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>315</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>316</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>317</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>318</v>
+      </c>
+      <c r="B309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>319</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>320</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>321</v>
+      </c>
+      <c r="B312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>322</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>323</v>
+      </c>
+      <c r="B314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>324</v>
+      </c>
+      <c r="B315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>326</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>327</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>328</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>329</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>330</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>331</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>332</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>333</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>334</v>
+      </c>
+      <c r="B325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>335</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>336</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>337</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>338</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>339</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>340</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>341</v>
+      </c>
+      <c r="B332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>342</v>
+      </c>
+      <c r="B333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>344</v>
+      </c>
+      <c r="B335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>346</v>
+      </c>
+      <c r="B337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>347</v>
+      </c>
+      <c r="B338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>349</v>
+      </c>
+      <c r="B340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>350</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>351</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>352</v>
+      </c>
+      <c r="B343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>353</v>
+      </c>
+      <c r="B344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>354</v>
+      </c>
+      <c r="B345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>355</v>
+      </c>
+      <c r="B346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>356</v>
+      </c>
+      <c r="B347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>357</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>358</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>359</v>
+      </c>
+      <c r="B350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>365</v>
+      </c>
+      <c r="B356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>366</v>
+      </c>
+      <c r="B357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>367</v>
+      </c>
+      <c r="B358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>368</v>
+      </c>
+      <c r="B359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>369</v>
+      </c>
+      <c r="B360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>370</v>
+      </c>
+      <c r="B361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>371</v>
+      </c>
+      <c r="B362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>372</v>
+      </c>
+      <c r="B363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>373</v>
+      </c>
+      <c r="B364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>374</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>375</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>376</v>
+      </c>
+      <c r="B367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>377</v>
+      </c>
+      <c r="B368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>378</v>
+      </c>
+      <c r="B369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>379</v>
+      </c>
+      <c r="B370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>276</v>
+      </c>
+      <c r="B371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>277</v>
+      </c>
+      <c r="B372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>278</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>380</v>
+      </c>
+      <c r="B374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>381</v>
+      </c>
+      <c r="B375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>382</v>
+      </c>
+      <c r="B376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>383</v>
+      </c>
+      <c r="B377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>384</v>
+      </c>
+      <c r="B378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>385</v>
+      </c>
+      <c r="B379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>386</v>
+      </c>
+      <c r="B380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>387</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>388</v>
+      </c>
+      <c r="B382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>389</v>
+      </c>
+      <c r="B383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>390</v>
+      </c>
+      <c r="B384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>391</v>
+      </c>
+      <c r="B385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>392</v>
+      </c>
+      <c r="B386">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>393</v>
+      </c>
+      <c r="B387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>394</v>
+      </c>
+      <c r="B388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>395</v>
+      </c>
+      <c r="B389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>396</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>397</v>
+      </c>
+      <c r="B391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>398</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>399</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>400</v>
+      </c>
+      <c r="B394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>401</v>
+      </c>
+      <c r="B396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>402</v>
+      </c>
+      <c r="B397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>403</v>
+      </c>
+      <c r="B398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>404</v>
+      </c>
+      <c r="B399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>405</v>
+      </c>
+      <c r="B400">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>406</v>
+      </c>
+      <c r="B401">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>407</v>
+      </c>
+      <c r="B402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>408</v>
+      </c>
+      <c r="B403">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>409</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>410</v>
+      </c>
+      <c r="B405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>411</v>
+      </c>
+      <c r="B406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>411</v>
+      </c>
+      <c r="B407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>412</v>
+      </c>
+      <c r="B408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>413</v>
+      </c>
+      <c r="B409">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>414</v>
+      </c>
+      <c r="B410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>415</v>
+      </c>
+      <c r="B411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>416</v>
+      </c>
+      <c r="B412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>417</v>
+      </c>
+      <c r="B413">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>418</v>
+      </c>
+      <c r="B414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>419</v>
+      </c>
+      <c r="B415">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>420</v>
+      </c>
+      <c r="B416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>421</v>
+      </c>
+      <c r="B417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>422</v>
+      </c>
+      <c r="B418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>423</v>
+      </c>
+      <c r="B419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>424</v>
+      </c>
+      <c r="B420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>425</v>
+      </c>
+      <c r="B421">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>426</v>
+      </c>
+      <c r="B422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>427</v>
+      </c>
+      <c r="B423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>407</v>
+      </c>
+      <c r="B424">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>408</v>
+      </c>
+      <c r="B425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>428</v>
+      </c>
+      <c r="B426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>429</v>
+      </c>
+      <c r="B427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>430</v>
+      </c>
+      <c r="B428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>431</v>
+      </c>
+      <c r="B429">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>432</v>
+      </c>
+      <c r="B430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>433</v>
+      </c>
+      <c r="B431">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>434</v>
+      </c>
+      <c r="B432">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>436</v>
+      </c>
+      <c r="B433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>437</v>
+      </c>
+      <c r="B435">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>439</v>
+      </c>
+      <c r="B437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>440</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>441</v>
+      </c>
+      <c r="B439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>442</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>443</v>
+      </c>
+      <c r="B441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>444</v>
+      </c>
+      <c r="B442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>446</v>
+      </c>
+      <c r="B444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>447</v>
+      </c>
+      <c r="B445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>448</v>
+      </c>
+      <c r="B446">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>449</v>
+      </c>
+      <c r="B447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>450</v>
+      </c>
+      <c r="B448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>451</v>
+      </c>
+      <c r="B449">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>418</v>
+      </c>
+      <c r="B450">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>465</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>466</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>469</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>470</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>473</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>474</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>475</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>470</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>476</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>477</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>483</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>484</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>485</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>486</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>487</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>488</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>489</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>472</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>140</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>514</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>235</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>573</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>561</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>562</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>563</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>564</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>565</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>566</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>567</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>568</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>569</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>570</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>571</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>572</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
